--- a/Tools/OccurrenceProperties.xlsx
+++ b/Tools/OccurrenceProperties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakeo\Documents\MATLAB\Aurora-MATLAB\Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37775BE-DDCF-4156-A182-FF4D6D3D77D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADAD841-4DB7-498F-A78D-75A1870431A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5856" yWindow="1044" windowWidth="17184" windowHeight="9468" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Tools/OccurrenceProperties.xlsx
+++ b/Tools/OccurrenceProperties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakeo\Documents\MATLAB\Aurora-MATLAB\Tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nduka\OneDrive\Документы\MATLAB\Aurora-MATLAB\Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADAD841-4DB7-498F-A78D-75A1870431A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A68812A-B992-4E8B-9718-10106C9457E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5856" yWindow="1044" windowWidth="17184" windowHeight="9468" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8772" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -21,36 +21,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
   <si>
     <t>OccurrenceNumber</t>
   </si>
   <si>
-    <t>'fins001'</t>
-  </si>
-  <si>
-    <t>'fins002'</t>
-  </si>
-  <si>
-    <t>'fins003'</t>
+    <t>'alti001'</t>
+  </si>
+  <si>
+    <t>'prse001'</t>
   </si>
   <si>
     <t>PartNumber</t>
   </si>
   <si>
-    <t>'001fins'</t>
+    <t>'001alti'</t>
+  </si>
+  <si>
+    <t>'001prse'</t>
   </si>
   <si>
     <t>ComponentName</t>
   </si>
   <si>
-    <t>Fin[2]</t>
-  </si>
-  <si>
-    <t>Fin[1]</t>
-  </si>
-  <si>
-    <t>Fin[3]</t>
+    <t>altimeter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pressure Sensor </t>
   </si>
   <si>
     <t>Properties</t>
@@ -62,16 +59,13 @@
     <t>See Properties sheet (Row 3)</t>
   </si>
   <si>
-    <t>See Properties sheet (Row 4)</t>
-  </si>
-  <si>
     <t>Component</t>
   </si>
   <si>
     <t>Property Name</t>
   </si>
   <si>
-    <t>AirResistance</t>
+    <t>SensorType</t>
   </si>
   <si>
     <t>Cost</t>
@@ -83,10 +77,22 @@
     <t>Property Value</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>'altitude'</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>'pressure'</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>500</t>
   </si>
 </sst>
 </file>
@@ -485,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -502,13 +508,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -516,13 +522,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -536,21 +542,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -560,14 +552,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -577,13 +569,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -594,10 +586,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -608,10 +600,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -622,7 +614,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -650,10 +642,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
         <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -664,10 +656,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -678,10 +670,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -692,10 +684,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -720,79 +712,9 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
         <v>5</v>
       </c>
     </row>
